--- a/output/economistas sin fronteras.xlsx
+++ b/output/economistas sin fronteras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -495,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +513,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,10 +622,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -715,15 +733,24 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>95925</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -822,15 +849,24 @@
         <v>0.5471885282129352</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>16711608</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -929,15 +965,24 @@
         <v>0.08337736274088181</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>132632</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1036,15 +1081,24 @@
         <v>0.08337736274088181</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>132242</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1143,15 +1197,24 @@
         <v>0.3141407353104611</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>129906.325</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1250,15 +1313,24 @@
         <v>0.4066149588944187</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>129906.325</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1357,15 +1429,24 @@
         <v>0.702591206521457</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>7497.815</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1464,15 +1545,24 @@
         <v>0.702591206521457</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>17760.725</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1571,15 +1661,24 @@
         <v>0.3118080219419736</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>7497.815</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1678,15 +1777,24 @@
         <v>0.3118080219419736</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>17760.725</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1785,9 +1893,18 @@
         <v>0.5333159469836836</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>98562</v>
       </c>
     </row>

--- a/output/economistas sin fronteras.xlsx
+++ b/output/economistas sin fronteras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -504,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +519,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +637,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -733,24 +745,30 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0.1024232612522325</v>
+      </c>
+      <c r="AJ2">
         <v>1999</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>95925</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -849,24 +867,30 @@
         <v>0.5471885282129352</v>
       </c>
       <c r="AI3">
+        <v>0.1469577174286696</v>
+      </c>
+      <c r="AJ3">
         <v>1999</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>16711608</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -965,24 +989,30 @@
         <v>0.08337736274088181</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1999</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>132632</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1081,24 +1111,30 @@
         <v>0.08337736274088181</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1999</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>132242</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1197,24 +1233,30 @@
         <v>0.3141407353104611</v>
       </c>
       <c r="AI6">
+        <v>0.4033789534937488</v>
+      </c>
+      <c r="AJ6">
         <v>1999</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>129906.325</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1313,24 +1355,30 @@
         <v>0.4066149588944187</v>
       </c>
       <c r="AI7">
+        <v>0.3737462359896641</v>
+      </c>
+      <c r="AJ7">
         <v>1999</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>129906.325</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1429,24 +1477,30 @@
         <v>0.702591206521457</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1999</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>7497.815</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1545,24 +1599,30 @@
         <v>0.702591206521457</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1999</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>17760.725</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1661,24 +1721,30 @@
         <v>0.3118080219419736</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>1999</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>7497.815</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1777,24 +1843,30 @@
         <v>0.3118080219419736</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>1999</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>17760.725</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1893,18 +1965,24 @@
         <v>0.5333159469836836</v>
       </c>
       <c r="AI12">
+        <v>0.1287670065611952</v>
+      </c>
+      <c r="AJ12">
         <v>1999</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>98562</v>
       </c>
     </row>

--- a/output/economistas sin fronteras.xlsx
+++ b/output/economistas sin fronteras.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D5">
         <v>211980</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D12">
         <v>0</v>

--- a/output/economistas sin fronteras.xlsx
+++ b/output/economistas sin fronteras.xlsx
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>129906.325</v>
+        <v>132242</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7497.815</v>
+        <v>129906.325</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17760.725</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
